--- a/000_data/006_en_que_se_gasta_PTE.xlsx
+++ b/000_data/006_en_que_se_gasta_PTE.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t xml:space="preserve">CodigoSector</t>
   </si>
@@ -99,49 +99,46 @@
     <t xml:space="preserve">FUNCIONAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">89,91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84,38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84,25</t>
+    <t xml:space="preserve">97,09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93,43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93,27</t>
   </si>
   <si>
     <t xml:space="preserve">SERVICIO DE LA DEUDA PUBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">53232942867342,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45279501669123,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45279501669123,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99,29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84,46</t>
+    <t xml:space="preserve">59650183600988,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54593407243251,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84,59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77,42</t>
   </si>
   <si>
     <t xml:space="preserve">INVERSION</t>
   </si>
   <si>
-    <t xml:space="preserve">42014247478382,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35330124689167,9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34692704291348,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80,73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79,27</t>
+    <t xml:space="preserve">56477435220806,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45867599202936,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45286933862059,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94,81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76,02</t>
   </si>
   <si>
     <t xml:space="preserve">TOTALES</t>
@@ -346,8 +343,8 @@
   </sheetPr>
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -438,10 +435,10 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="n">
-        <v>170148088524900</v>
+        <v>184930752686355</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>211802689408870</v>
+        <v>213884629908802</v>
       </c>
       <c r="N2" s="5" t="n">
         <v>0</v>
@@ -456,13 +453,13 @@
         <v>0</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>190430173317869</v>
+        <v>207660213288146</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>178728148073844</v>
+        <v>199833291654427</v>
       </c>
       <c r="T2" s="5" t="n">
-        <v>178448235855208</v>
+        <v>199499248413986</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>24</v>
@@ -489,10 +486,10 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="n">
-        <v>53613700937252</v>
+        <v>70519715412512</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>53613700937252</v>
+        <v>70519715412512</v>
       </c>
       <c r="N3" s="5" t="n">
         <v>0</v>
@@ -513,16 +510,16 @@
         <v>29</v>
       </c>
       <c r="T3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="W3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,7 +528,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -540,10 +537,10 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="n">
-        <v>47952205249589</v>
+        <v>58547545945984</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43764039284272</v>
+        <v>59571784327827</v>
       </c>
       <c r="N4" s="5" t="n">
         <v>0</v>
@@ -558,22 +555,22 @@
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,7 +579,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -591,10 +588,10 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="n">
-        <v>271713994711741</v>
+        <v>313998014044851</v>
       </c>
       <c r="M5" s="8" t="n">
-        <v>309180429630394</v>
+        <v>343976129649141</v>
       </c>
       <c r="N5" s="8" t="n">
         <v>0</v>

--- a/000_data/006_en_que_se_gasta_PTE.xlsx
+++ b/000_data/006_en_que_se_gasta_PTE.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">CodigoSector</t>
   </si>
@@ -99,46 +99,61 @@
     <t xml:space="preserve">FUNCIONAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">97,09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93,43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93,27</t>
+    <t xml:space="preserve">94747543731244,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75335852545824,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74218650112469,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,16</t>
   </si>
   <si>
     <t xml:space="preserve">SERVICIO DE LA DEUDA PUBLICA</t>
   </si>
   <si>
-    <t xml:space="preserve">59650183600988,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54593407243251,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84,59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77,42</t>
+    <t xml:space="preserve">24904493620012,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24553292459922,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34,26</t>
   </si>
   <si>
     <t xml:space="preserve">INVERSION</t>
   </si>
   <si>
-    <t xml:space="preserve">56477435220806,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45867599202936,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45286933862059,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94,81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76,02</t>
+    <t xml:space="preserve">43890839376489,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20840272889886,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20305061262707,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63,04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,16</t>
   </si>
   <si>
     <t xml:space="preserve">TOTALES</t>
@@ -343,7 +358,7 @@
   </sheetPr>
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -435,10 +450,10 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="n">
-        <v>184930752686355</v>
+        <v>209107394295649</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>213884629908802</v>
+        <v>211118063130186</v>
       </c>
       <c r="N2" s="5" t="n">
         <v>0</v>
@@ -452,23 +467,23 @@
       <c r="Q2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="5" t="n">
-        <v>207660213288146</v>
-      </c>
-      <c r="S2" s="5" t="n">
-        <v>199833291654427</v>
-      </c>
-      <c r="T2" s="5" t="n">
-        <v>199499248413986</v>
+      <c r="R2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -477,7 +492,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -486,10 +501,10 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="n">
-        <v>70519715412512</v>
+        <v>71664579597669</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>70519715412512</v>
+        <v>71664579597669</v>
       </c>
       <c r="N3" s="5" t="n">
         <v>0</v>
@@ -504,22 +519,22 @@
         <v>0</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>24807629623092</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,7 +543,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -537,10 +552,10 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="n">
-        <v>58547545945984</v>
+        <v>69625547867062</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59571784327827</v>
+        <v>69625547867062</v>
       </c>
       <c r="N4" s="5" t="n">
         <v>0</v>
@@ -555,22 +570,22 @@
         <v>0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4" s="5" t="n">
-        <v>77</v>
+        <v>40</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,7 +594,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -588,10 +603,10 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="n">
-        <v>313998014044851</v>
+        <v>350397521760380</v>
       </c>
       <c r="M5" s="8" t="n">
-        <v>343976129649141</v>
+        <v>352408190594917</v>
       </c>
       <c r="N5" s="8" t="n">
         <v>0</v>
